--- a/scripts/experiments/results_experiment.xlsx
+++ b/scripts/experiments/results_experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k uniform - delay" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="306">
   <si>
     <t>k_max</t>
   </si>
@@ -854,6 +854,93 @@
   <si>
     <t>repeat</t>
   </si>
+  <si>
+    <t>kExponential-2430-20231222-17:54:41-13640</t>
+  </si>
+  <si>
+    <t>kExponential-2431-20231222-17:54:46-17688</t>
+  </si>
+  <si>
+    <t>kExponential-2432-20231222-17:54:50-7876</t>
+  </si>
+  <si>
+    <t>kExponential-2433-20231222-17:54:54-16104</t>
+  </si>
+  <si>
+    <t>kExponential-2435-20231222-17:55:01-4832</t>
+  </si>
+  <si>
+    <t>kExponential-2436-20231222-17:55:05-13724</t>
+  </si>
+  <si>
+    <t>kExponential-2437-20231222-17:55:08-15988</t>
+  </si>
+  <si>
+    <t>kExponential-2438-20231222-17:55:11-13004</t>
+  </si>
+  <si>
+    <t>kExponential-2439-20231222-17:55:15-1132</t>
+  </si>
+  <si>
+    <t>kExponential-2440-20231222-17:55:18-10636</t>
+  </si>
+  <si>
+    <t>kExponential-2441-20231222-17:55:22-20856</t>
+  </si>
+  <si>
+    <t>kExponential-2442-20231222-17:55:25-20160</t>
+  </si>
+  <si>
+    <t>kExponential-2443-20231222-17:55:30-23492</t>
+  </si>
+  <si>
+    <t>kExponential-2444-20231222-17:55:33-12572</t>
+  </si>
+  <si>
+    <t>kExponential-2445-20231222-17:55:36-7284</t>
+  </si>
+  <si>
+    <t>kExponential-2446-20231222-17:55:40-16860</t>
+  </si>
+  <si>
+    <t>kExponential-2447-20231222-17:55:43-23040</t>
+  </si>
+  <si>
+    <t>kExponential-2448-20231222-17:55:47-22916</t>
+  </si>
+  <si>
+    <t>kExponential-2449-20231222-17:55:50-12092</t>
+  </si>
+  <si>
+    <t>kExponential-2450-20231222-17:55:55-15596</t>
+  </si>
+  <si>
+    <t>kExponential-2451-20231222-17:56:00-13964</t>
+  </si>
+  <si>
+    <t>kExponential-2452-20231222-17:56:05-17420</t>
+  </si>
+  <si>
+    <t>kExponential-2453-20231222-17:56:08-13972</t>
+  </si>
+  <si>
+    <t>kExponential-2454-20231222-17:56:12-20780</t>
+  </si>
+  <si>
+    <t>kExponential-2455-20231222-17:56:15-10264</t>
+  </si>
+  <si>
+    <t>kExponential-2456-20231222-17:56:19-6524</t>
+  </si>
+  <si>
+    <t>kExponential-2457-20231222-17:56:23-14280</t>
+  </si>
+  <si>
+    <t>kExponential-2458-20231222-17:56:26-20132</t>
+  </si>
+  <si>
+    <t>kExponential-2459-20231222-17:56:30-1116</t>
+  </si>
 </sst>
 </file>
 
@@ -3505,6 +3592,2067 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> end-to-end delay</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>k uniform</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>(zoomed-in)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k_mean=0.3s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$24:$P$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.1354110548605322E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2650251466474108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.9819926079635876E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7936595789296989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.8170065515103465E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0751276711467732E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1688406813948582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1229897601807957E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.0881704353464692E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$24:$P$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.1354110548605322E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2650251466474108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.9819926079635876E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7936595789296989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.8170065515103465E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0751276711467732E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1688406813948582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1229897601807957E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.0881704353464692E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$N$24:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$O$24:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.20092720086206897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20051033610344826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20114849700000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20344236762068962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20478983286206892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20752083672413793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23367196306896554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28232044951724133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36949491379310351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D09C-478F-8CC7-2649F2FFB449}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k_mean=0.4s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$35:$P$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>8.4302900264509792E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6886850979857159E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7361899347094612E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3534224593061531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.3537373299378229E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0517049842494112E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.4871529986282583E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6174202720083265E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9847896525966077E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$35:$P$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>8.4302900264509792E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6886850979857159E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7361899347094612E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3534224593061531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.3537373299378229E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0517049842494112E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.4871529986282583E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6174202720083265E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9847896525966077E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$N$35:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$O$35:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.14761483151724136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1476241804827586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14788258637931034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14870010658620689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14933128055172412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15020948658620686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15797958217241378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17364875634482763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19640881613793099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D09C-478F-8CC7-2649F2FFB449}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k_mean=0.5s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$46:$P$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>6.0430785645182211E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7386001955538426E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.2418132582538774E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.9897425453091624E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.2361170124370301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.9884556096466721E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.1007999111811472E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2827540334363853E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8320827194876336E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$46:$P$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>6.0430785645182211E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7386001955538426E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.2418132582538774E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.9897425453091624E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.2361170124370301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.9884556096466721E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.1007999111811472E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2827540334363853E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8320827194876336E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$N$46:$N$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$O$46:$O$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13272065689655171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1327014917586207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1328854452413793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13333143731034483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13377309579310345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13440027693103448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13935180182758616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14784510644827586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16025602365517239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D09C-478F-8CC7-2649F2FFB449}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>k_mean=0.6s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$57:$P$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>5.4539240052124531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5633731309794087E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.4656108279490146E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8826104673923962E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.6433973239449354E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.7921140726700533E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3479076351840278E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.197535524254737E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2198742313950426E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$57:$P$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>5.4539240052124531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5633731309794087E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.4656108279490146E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8826104673923962E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.6433973239449354E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.7921140726700533E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3479076351840278E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.197535524254737E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2198742313950426E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$N$57:$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$O$57:$O$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12594134937931029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12593517927586206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12610378448275864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12654792255172415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12681415855172412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1273539449310345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13162290203448274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13803783696551725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14711324313793106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D09C-478F-8CC7-2649F2FFB449}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>k_mean=0.7s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$68:$P$76</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5926926206785434E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7653200189622894E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8205520299598017E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6206342184204731E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2569828703215619E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8329756828163235E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0108892390528447E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.2210628284317621E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.1301881449864977E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$68:$P$76</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5926926206785434E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7653200189622894E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8205520299598017E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6206342184204731E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2569828703215619E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8329756828163235E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0108892390528447E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.2210628284317621E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.1301881449864977E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$N$68:$N$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$O$68:$O$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12172256282758621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1217974546551724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12189731503448274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12222439324137929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12261955275862067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12317323444827585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12677826127586206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13252293427586209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14008292075862069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D09C-478F-8CC7-2649F2FFB449}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>k_mean=0.8s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$79:$P$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5953930914924865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.9021070999185679E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.7745400123666625E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6491597807774199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7925784976452868E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9979335764821628E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.8298609294970845E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.9462432626122167E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.7014446519694472E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$79:$P$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5953930914924865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.9021070999185679E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.7745400123666625E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6491597807774199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7925784976452868E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9979335764821628E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.8298609294970845E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.9462432626122167E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.7014446519694472E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$N$79:$N$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$O$79:$O$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.11939793765517238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11938909786206897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11960653937931034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1198885206551724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12025630293103449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12067470396551726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12401380441379312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1292272871724138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13623450617241378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D09C-478F-8CC7-2649F2FFB449}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>k_mean=0.9s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$90:$P$98</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5108858168986662E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.1334140925411813E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3490379465521744E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7600442891301272E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.4732337252602734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.7195312983353932E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6554609618360742E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.9062947813469607E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1755359370038942E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$90:$P$98</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5108858168986662E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.1334140925411813E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3490379465521744E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7600442891301272E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.4732337252602734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.7195312983353932E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6554609618360742E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.9062947813469607E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1755359370038942E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$N$90:$N$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$O$90:$O$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1174424005862069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11748921344827586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11759816300000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11800281841379311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11823410779310346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11877496210344829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12195880510344825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12684092079310344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13337699710344827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D09C-478F-8CC7-2649F2FFB449}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>k_mean=1s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$101:$P$109</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'k exp - delay'!$P$101:$P$109</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$N$101:$N$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k exp - delay'!$O$101:$O$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D09C-478F-8CC7-2649F2FFB449}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="756065808"/>
+        <c:axId val="756066224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="756065808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="26"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>t [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756066224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="756066224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Mean end-to-end</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> delay [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756065808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
               <a:t>Mean number of packets in queue</a:t>
             </a:r>
@@ -5207,7 +7355,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -19793,6 +21941,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>5.5808156052571967</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5522392780846195</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.6927154070695503</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7229247709782456</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.1580901006946904</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.0793594774798345</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.9430120062996226</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>13.837065290223494</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>38.836206712167325</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -19802,6 +21977,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>5.5808156052571967</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5522392780846195</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.6927154070695503</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.7229247709782456</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.1580901006946904</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.0793594774798345</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.9430120062996226</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>13.837065290223494</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>38.836206712167325</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -19858,6 +22060,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.544266273551724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.631093422310343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.846279536896551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.179797013448276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.775845377586204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.236526141379311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.605122968620694</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.922744778965523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>234.53367132758621</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19923,6 +22152,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>3.9270912516630549E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.675182417038686E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8107607469153745E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9503631703440532E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8146575591039691E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8942779228243747E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.7134652297316397E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14891466110756305</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.56129184540583066</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -19932,6 +22188,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>3.9270912516630549E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.675182417038686E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8107607469153745E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9503631703440532E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8146575591039691E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8942779228243747E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.7134652297316397E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14891466110756305</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.56129184540583066</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -19988,6 +22271,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.789517201413793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.784392965551724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78680720475862098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79595512262068946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81381955393103445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83115225962068939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0382090708620688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4833450418620686</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6722494598620692</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20053,6 +22363,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.1354110548605322E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2650251466474108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.9819926079635876E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7936595789296989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.8170065515103465E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0751276711467732E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1688406813948582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1229897601807957E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.0881704353464692E-2</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -20062,6 +22399,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.1354110548605322E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2650251466474108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.9819926079635876E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7936595789296989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.8170065515103465E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0751276711467732E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1688406813948582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1229897601807957E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.0881704353464692E-2</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -20118,6 +22482,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.20092720086206897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20051033610344826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20114849700000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20344236762068962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20478983286206892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20752083672413793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23367196306896554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28232044951724133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36949491379310351</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20183,6 +22574,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>8.4302900264509792E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6886850979857159E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7361899347094612E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3534224593061531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.3537373299378229E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0517049842494112E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.4871529986282583E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6174202720083265E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9847896525966077E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -20192,6 +22610,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>8.4302900264509792E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6886850979857159E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7361899347094612E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3534224593061531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.3537373299378229E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0517049842494112E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.4871529986282583E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6174202720083265E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9847896525966077E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -20248,6 +22693,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.14761483151724136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1476241804827586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14788258637931034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14870010658620689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14933128055172412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15020948658620686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15797958217241378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17364875634482763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19640881613793099</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20313,6 +22785,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>6.0430785645182211E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7386001955538426E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.2418132582538774E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.9897425453091624E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.2361170124370301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.9884556096466721E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.1007999111811472E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2827540334363853E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8320827194876336E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -20322,6 +22821,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>6.0430785645182211E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7386001955538426E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.2418132582538774E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.9897425453091624E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.2361170124370301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.9884556096466721E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.1007999111811472E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2827540334363853E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8320827194876336E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -20378,6 +22904,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13272065689655171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1327014917586207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1328854452413793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13333143731034483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13377309579310345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13440027693103448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13935180182758616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14784510644827586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16025602365517239</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20443,6 +22996,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>5.4539240052124531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5633731309794087E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.4656108279490146E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8826104673923962E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.6433973239449354E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.7921140726700533E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3479076351840278E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.197535524254737E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2198742313950426E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -20452,6 +23032,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>5.4539240052124531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5633731309794087E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.4656108279490146E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8826104673923962E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.6433973239449354E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.7921140726700533E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3479076351840278E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.197535524254737E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2198742313950426E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -20508,6 +23115,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12594134937931029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12593517927586206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12610378448275864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12654792255172415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12681415855172412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1273539449310345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13162290203448274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13803783696551725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14711324313793106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20579,6 +23213,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5926926206785434E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7653200189622894E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8205520299598017E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6206342184204731E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2569828703215619E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8329756828163235E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0108892390528447E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.2210628284317621E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.1301881449864977E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -20588,6 +23249,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5926926206785434E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7653200189622894E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8205520299598017E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6206342184204731E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2569828703215619E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8329756828163235E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0108892390528447E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.2210628284317621E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.1301881449864977E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -20644,6 +23332,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12172256282758621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1217974546551724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12189731503448274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12222439324137929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12261955275862067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12317323444827585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12677826127586206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13252293427586209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14008292075862069</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20715,6 +23430,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5953930914924865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.9021070999185679E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.7745400123666625E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6491597807774199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7925784976452868E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9979335764821628E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.8298609294970845E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.9462432626122167E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.7014446519694472E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -20724,6 +23466,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5953930914924865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.9021070999185679E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.7745400123666625E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6491597807774199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7925784976452868E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9979335764821628E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.8298609294970845E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.9462432626122167E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.7014446519694472E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -20780,6 +23549,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.11939793765517238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11938909786206897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11960653937931034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1198885206551724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12025630293103449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12067470396551726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12401380441379312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1292272871724138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13623450617241378</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20851,6 +23647,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5108858168986662E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.1334140925411813E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3490379465521744E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7600442891301272E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.4732337252602734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.7195312983353932E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6554609618360742E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.9062947813469607E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1755359370038942E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -20860,6 +23683,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5108858168986662E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.1334140925411813E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3490379465521744E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7600442891301272E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.4732337252602734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.7195312983353932E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6554609618360742E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.9062947813469607E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1755359370038942E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -20916,6 +23766,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1174424005862069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11748921344827586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11759816300000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11800281841379311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11823410779310346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11877496210344829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12195880510344825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12684092079310344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13337699710344827</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -21547,6 +24424,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>3.9270912516630549E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.675182417038686E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8107607469153745E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9503631703440532E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8146575591039691E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8942779228243747E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.7134652297316397E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14891466110756305</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.56129184540583066</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -21556,6 +24460,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>3.9270912516630549E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.675182417038686E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8107607469153745E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9503631703440532E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.8146575591039691E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8942779228243747E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.7134652297316397E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.14891466110756305</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.56129184540583066</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -21612,6 +24543,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.789517201413793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.784392965551724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78680720475862098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79595512262068946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81381955393103445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83115225962068939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0382090708620688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4833450418620686</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6722494598620692</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -21677,6 +24635,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.1354110548605322E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2650251466474108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.9819926079635876E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7936595789296989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.8170065515103465E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0751276711467732E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1688406813948582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1229897601807957E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.0881704353464692E-2</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -21686,6 +24671,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.1354110548605322E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.2650251466474108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.9819926079635876E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7936595789296989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.8170065515103465E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.0751276711467732E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1688406813948582E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1229897601807957E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.0881704353464692E-2</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -21742,6 +24754,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.20092720086206897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20051033610344826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20114849700000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20344236762068962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20478983286206892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20752083672413793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23367196306896554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28232044951724133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36949491379310351</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -21807,6 +24846,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>8.4302900264509792E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6886850979857159E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7361899347094612E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3534224593061531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.3537373299378229E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0517049842494112E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.4871529986282583E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6174202720083265E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9847896525966077E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -21816,6 +24882,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>8.4302900264509792E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6886850979857159E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7361899347094612E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.3534224593061531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.3537373299378229E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0517049842494112E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.4871529986282583E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6174202720083265E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9847896525966077E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -21872,6 +24965,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.14761483151724136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1476241804827586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14788258637931034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14870010658620689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14933128055172412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15020948658620686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15797958217241378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17364875634482763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19640881613793099</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -21937,6 +25057,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>6.0430785645182211E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7386001955538426E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.2418132582538774E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.9897425453091624E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.2361170124370301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.9884556096466721E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.1007999111811472E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2827540334363853E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8320827194876336E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -21946,6 +25093,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>6.0430785645182211E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7386001955538426E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.2418132582538774E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.9897425453091624E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.2361170124370301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.9884556096466721E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.1007999111811472E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2827540334363853E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8320827194876336E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -22002,6 +25176,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13272065689655171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1327014917586207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1328854452413793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13333143731034483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13377309579310345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13440027693103448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13935180182758616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14784510644827586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16025602365517239</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -22067,6 +25268,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>5.4539240052124531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5633731309794087E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.4656108279490146E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8826104673923962E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.6433973239449354E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.7921140726700533E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3479076351840278E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.197535524254737E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2198742313950426E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -22076,6 +25304,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>5.4539240052124531E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5633731309794087E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.4656108279490146E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.8826104673923962E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.6433973239449354E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.7921140726700533E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.3479076351840278E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.197535524254737E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2198742313950426E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -22132,6 +25387,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12594134937931029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12593517927586206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12610378448275864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12654792255172415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12681415855172412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1273539449310345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13162290203448274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13803783696551725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14711324313793106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -22203,6 +25485,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5926926206785434E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7653200189622894E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8205520299598017E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6206342184204731E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2569828703215619E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8329756828163235E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0108892390528447E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.2210628284317621E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.1301881449864977E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -22212,6 +25521,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5926926206785434E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7653200189622894E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8205520299598017E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6206342184204731E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.2569828703215619E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8329756828163235E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0108892390528447E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.2210628284317621E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.1301881449864977E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -22268,6 +25604,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12172256282758621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1217974546551724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12189731503448274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12222439324137929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12261955275862067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12317323444827585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12677826127586206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13252293427586209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14008292075862069</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -22339,6 +25702,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5953930914924865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.9021070999185679E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.7745400123666625E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6491597807774199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7925784976452868E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9979335764821628E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.8298609294970845E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.9462432626122167E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.7014446519694472E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -22348,6 +25738,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5953930914924865E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.9021070999185679E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.7745400123666625E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6491597807774199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7925784976452868E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.9979335764821628E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.8298609294970845E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.9462432626122167E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.7014446519694472E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -22404,6 +25821,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.11939793765517238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11938909786206897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11960653937931034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1198885206551724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12025630293103449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12067470396551726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12401380441379312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1292272871724138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13623450617241378</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -22475,6 +25919,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5108858168986662E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.1334140925411813E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3490379465521744E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7600442891301272E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.4732337252602734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.7195312983353932E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6554609618360742E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.9062947813469607E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1755359370038942E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -22484,6 +25955,33 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>4.5108858168986662E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.1334140925411813E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3490379465521744E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.7600442891301272E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.4732337252602734E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.7195312983353932E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6554609618360742E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.9062947813469607E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.1755359370038942E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -22540,6 +26038,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1174424005862069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11748921344827586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11759816300000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11800281841379311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11823410779310346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11877496210344829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12195880510344825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12684092079310344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13337699710344827</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -23098,6 +26623,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -24490,6 +28055,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29431,6 +33512,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29768,7 +33881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC278"/>
   <sheetViews>
-    <sheetView topLeftCell="P64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ84" sqref="AJ84"/>
     </sheetView>
   </sheetViews>
@@ -39304,8 +43417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC250"/>
   <sheetViews>
-    <sheetView topLeftCell="O16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ28" sqref="AJ28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39321,6 +43434,21 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" t="s">
         <v>9</v>
       </c>
@@ -39356,72 +43484,293 @@
       <c r="B2">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>0.11659422899999999</v>
+      </c>
       <c r="H2">
         <f>SUM(G2:G30)/I$2</f>
-        <v>0</v>
+        <v>0.11607726044827588</v>
       </c>
       <c r="I2">
         <v>29</v>
       </c>
-      <c r="J2" t="e">
+      <c r="J2">
         <f>CONFIDENCE(K$2,L2,I$2)</f>
-        <v>#DIV/0!</v>
+        <v>4.9079508115730433E-4</v>
       </c>
       <c r="K2">
         <v>0.01</v>
       </c>
-      <c r="L2" t="e">
+      <c r="L2">
         <f>STDEV(G2:G30)</f>
-        <v>#DIV/0!</v>
+        <v>1.0260821223369015E-3</v>
       </c>
       <c r="N2">
         <v>5</v>
       </c>
+      <c r="O2">
+        <v>15.544266273551724</v>
+      </c>
+      <c r="P2">
+        <v>5.5808156052571967</v>
+      </c>
       <c r="Q2">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>0.116004651</v>
+      </c>
       <c r="N3">
         <v>6</v>
       </c>
+      <c r="O3">
+        <v>15.631093422310343</v>
+      </c>
+      <c r="P3">
+        <v>5.5522392780846195</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>0.11781947800000001</v>
+      </c>
       <c r="N4">
         <v>7</v>
       </c>
+      <c r="O4">
+        <v>15.846279536896551</v>
+      </c>
+      <c r="P4">
+        <v>5.6927154070695503</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0.11656783699999999</v>
+      </c>
       <c r="N5">
         <v>8</v>
       </c>
+      <c r="O5">
+        <v>16.179797013448276</v>
+      </c>
+      <c r="P5">
+        <v>5.7229247709782456</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>0.116142325</v>
+      </c>
       <c r="N6">
         <v>9</v>
       </c>
+      <c r="O6">
+        <v>16.775845377586204</v>
+      </c>
+      <c r="P6">
+        <v>6.1580901006946904</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>0.114868769</v>
+      </c>
       <c r="N7">
         <v>10</v>
       </c>
+      <c r="O7">
+        <v>17.236526141379311</v>
+      </c>
+      <c r="P7">
+        <v>6.0793594774798345</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>0.11682648</v>
+      </c>
       <c r="N8">
         <v>15</v>
       </c>
+      <c r="O8">
+        <v>26.605122968620694</v>
+      </c>
+      <c r="P8">
+        <v>7.9430120062996226</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0.114422634</v>
+      </c>
       <c r="N9">
         <v>20</v>
       </c>
+      <c r="O9">
+        <v>73.922744778965523</v>
+      </c>
+      <c r="P9">
+        <v>13.837065290223494</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0.115716631</v>
+      </c>
       <c r="N10">
         <v>25</v>
       </c>
+      <c r="O10">
+        <v>234.53367132758621</v>
+      </c>
+      <c r="P10">
+        <v>38.836206712167325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0.115308878</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>0.118014269</v>
+      </c>
       <c r="N12" t="s">
         <v>1</v>
       </c>
@@ -39436,54 +43785,275 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>0.115562759</v>
+      </c>
       <c r="N13">
         <v>5</v>
       </c>
+      <c r="O13">
+        <v>0.789517201413793</v>
+      </c>
+      <c r="P13">
+        <v>3.9270912516630549E-2</v>
+      </c>
       <c r="Q13">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>0.116243599</v>
+      </c>
       <c r="N14">
         <v>6</v>
       </c>
+      <c r="O14">
+        <v>0.784392965551724</v>
+      </c>
+      <c r="P14">
+        <v>3.675182417038686E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>0.117221571</v>
+      </c>
       <c r="N15">
         <v>7</v>
       </c>
+      <c r="O15">
+        <v>0.78680720475862098</v>
+      </c>
+      <c r="P15">
+        <v>3.8107607469153745E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>0.11634214499999999</v>
+      </c>
       <c r="N16">
         <v>8</v>
       </c>
+      <c r="O16">
+        <v>0.79595512262068946</v>
+      </c>
+      <c r="P16">
+        <v>3.9503631703440532E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>0.117325598</v>
+      </c>
       <c r="N17">
         <v>9</v>
       </c>
+      <c r="O17">
+        <v>0.81381955393103445</v>
+      </c>
+      <c r="P17">
+        <v>3.8146575591039691E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>0.11559006300000001</v>
+      </c>
       <c r="N18">
         <v>10</v>
       </c>
+      <c r="O18">
+        <v>0.83115225962068939</v>
+      </c>
+      <c r="P18">
+        <v>3.8942779228243747E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>0.116031339</v>
+      </c>
       <c r="N19">
         <v>15</v>
       </c>
+      <c r="O19">
+        <v>1.0382090708620688</v>
+      </c>
+      <c r="P19">
+        <v>6.7134652297316397E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>0.116296412</v>
+      </c>
       <c r="N20">
         <v>20</v>
       </c>
+      <c r="O20">
+        <v>1.4833450418620686</v>
+      </c>
+      <c r="P20">
+        <v>0.14891466110756305</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>0.115691406</v>
+      </c>
       <c r="N21">
         <v>25</v>
       </c>
+      <c r="O21">
+        <v>2.6722494598620692</v>
+      </c>
+      <c r="P21">
+        <v>0.56129184540583066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>0.116134794</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>0.11495996</v>
+      </c>
       <c r="N23" t="s">
         <v>1</v>
       </c>
@@ -39498,47 +44068,200 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>0.11468824399999999</v>
+      </c>
       <c r="N24">
         <v>5</v>
       </c>
+      <c r="O24">
+        <v>0.20092720086206897</v>
+      </c>
+      <c r="P24">
+        <v>4.1354110548605322E-3</v>
+      </c>
       <c r="Q24">
         <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>0.116823159</v>
+      </c>
       <c r="N25">
         <v>6</v>
       </c>
+      <c r="O25">
+        <v>0.20051033610344826</v>
+      </c>
+      <c r="P25">
+        <v>4.2650251466474108E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>0.11397170700000001</v>
+      </c>
       <c r="N26">
         <v>7</v>
       </c>
+      <c r="O26">
+        <v>0.20114849700000004</v>
+      </c>
+      <c r="P26">
+        <v>3.9819926079635876E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>0.114790086</v>
+      </c>
       <c r="N27">
         <v>8</v>
       </c>
+      <c r="O27">
+        <v>0.20344236762068962</v>
+      </c>
+      <c r="P27">
+        <v>4.7936595789296989E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>0.115734819</v>
+      </c>
       <c r="N28">
         <v>9</v>
       </c>
+      <c r="O28">
+        <v>0.20478983286206892</v>
+      </c>
+      <c r="P28">
+        <v>4.8170065515103465E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>0.117606532</v>
+      </c>
       <c r="N29">
         <v>10</v>
       </c>
+      <c r="O29">
+        <v>0.20752083672413793</v>
+      </c>
+      <c r="P29">
+        <v>5.0751276711467732E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>0.11694017900000001</v>
+      </c>
       <c r="N30">
         <v>15</v>
+      </c>
+      <c r="O30">
+        <v>0.23367196306896554</v>
+      </c>
+      <c r="P30">
+        <v>7.1688406813948582E-3</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N31">
         <v>20</v>
       </c>
+      <c r="O31">
+        <v>0.28232044951724133</v>
+      </c>
+      <c r="P31">
+        <v>1.1229897601807957E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -39565,6 +44288,12 @@
       <c r="N32">
         <v>25</v>
       </c>
+      <c r="O32">
+        <v>0.36949491379310351</v>
+      </c>
+      <c r="P32">
+        <v>2.0881704353464692E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -39610,6 +44339,12 @@
       <c r="N35">
         <v>5</v>
       </c>
+      <c r="O35">
+        <v>0.14761483151724136</v>
+      </c>
+      <c r="P35">
+        <v>8.4302900264509792E-4</v>
+      </c>
       <c r="Q35">
         <v>0.4</v>
       </c>
@@ -39618,42 +44353,90 @@
       <c r="N36">
         <v>6</v>
       </c>
+      <c r="O36">
+        <v>0.1476241804827586</v>
+      </c>
+      <c r="P36">
+        <v>8.6886850979857159E-4</v>
+      </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="N37">
         <v>7</v>
       </c>
+      <c r="O37">
+        <v>0.14788258637931034</v>
+      </c>
+      <c r="P37">
+        <v>9.7361899347094612E-4</v>
+      </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="N38">
         <v>8</v>
       </c>
+      <c r="O38">
+        <v>0.14870010658620689</v>
+      </c>
+      <c r="P38">
+        <v>9.3534224593061531E-4</v>
+      </c>
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="N39">
         <v>9</v>
       </c>
+      <c r="O39">
+        <v>0.14933128055172412</v>
+      </c>
+      <c r="P39">
+        <v>9.3537373299378229E-4</v>
+      </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="N40">
         <v>10</v>
       </c>
+      <c r="O40">
+        <v>0.15020948658620686</v>
+      </c>
+      <c r="P40">
+        <v>1.0517049842494112E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="N41">
         <v>15</v>
       </c>
+      <c r="O41">
+        <v>0.15797958217241378</v>
+      </c>
+      <c r="P41">
+        <v>1.4871529986282583E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="N42">
         <v>20</v>
       </c>
+      <c r="O42">
+        <v>0.17364875634482763</v>
+      </c>
+      <c r="P42">
+        <v>2.6174202720083265E-3</v>
+      </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="N43">
         <v>25</v>
       </c>
+      <c r="O43">
+        <v>0.19640881613793099</v>
+      </c>
+      <c r="P43">
+        <v>3.9847896525966077E-3</v>
+      </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="N45" t="s">
@@ -39673,6 +44456,12 @@
       <c r="N46">
         <v>5</v>
       </c>
+      <c r="O46">
+        <v>0.13272065689655171</v>
+      </c>
+      <c r="P46">
+        <v>6.0430785645182211E-4</v>
+      </c>
       <c r="Q46">
         <v>0.5</v>
       </c>
@@ -39681,41 +44470,89 @@
       <c r="N47">
         <v>6</v>
       </c>
+      <c r="O47">
+        <v>0.1327014917586207</v>
+      </c>
+      <c r="P47">
+        <v>5.7386001955538426E-4</v>
+      </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="N48">
         <v>7</v>
       </c>
+      <c r="O48">
+        <v>0.1328854452413793</v>
+      </c>
+      <c r="P48">
+        <v>6.2418132582538774E-4</v>
+      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N49">
         <v>8</v>
       </c>
+      <c r="O49">
+        <v>0.13333143731034483</v>
+      </c>
+      <c r="P49">
+        <v>7.9897425453091624E-4</v>
+      </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N50">
         <v>9</v>
       </c>
+      <c r="O50">
+        <v>0.13377309579310345</v>
+      </c>
+      <c r="P50">
+        <v>6.2361170124370301E-4</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N51">
         <v>10</v>
       </c>
+      <c r="O51">
+        <v>0.13440027693103448</v>
+      </c>
+      <c r="P51">
+        <v>6.9884556096466721E-4</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N52">
         <v>15</v>
       </c>
+      <c r="O52">
+        <v>0.13935180182758616</v>
+      </c>
+      <c r="P52">
+        <v>9.1007999111811472E-4</v>
+      </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N53">
         <v>20</v>
       </c>
+      <c r="O53">
+        <v>0.14784510644827586</v>
+      </c>
+      <c r="P53">
+        <v>1.2827540334363853E-3</v>
+      </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N54">
         <v>25</v>
       </c>
+      <c r="O54">
+        <v>0.16025602365517239</v>
+      </c>
+      <c r="P54">
+        <v>1.8320827194876336E-3</v>
+      </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N56" t="s">
@@ -39735,6 +44572,12 @@
       <c r="N57">
         <v>5</v>
       </c>
+      <c r="O57">
+        <v>0.12594134937931029</v>
+      </c>
+      <c r="P57">
+        <v>5.4539240052124531E-4</v>
+      </c>
       <c r="Q57">
         <v>0.6</v>
       </c>
@@ -39743,26 +44586,56 @@
       <c r="N58">
         <v>6</v>
       </c>
+      <c r="O58">
+        <v>0.12593517927586206</v>
+      </c>
+      <c r="P58">
+        <v>5.5633731309794087E-4</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N59">
         <v>7</v>
       </c>
+      <c r="O59">
+        <v>0.12610378448275864</v>
+      </c>
+      <c r="P59">
+        <v>5.4656108279490146E-4</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N60">
         <v>8</v>
       </c>
+      <c r="O60">
+        <v>0.12654792255172415</v>
+      </c>
+      <c r="P60">
+        <v>5.8826104673923962E-4</v>
+      </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N61">
         <v>9</v>
       </c>
+      <c r="O61">
+        <v>0.12681415855172412</v>
+      </c>
+      <c r="P61">
+        <v>5.6433973239449354E-4</v>
+      </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N62">
         <v>10</v>
       </c>
+      <c r="O62">
+        <v>0.1273539449310345</v>
+      </c>
+      <c r="P62">
+        <v>5.7921140726700533E-4</v>
+      </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -39789,6 +44662,12 @@
       <c r="N63">
         <v>15</v>
       </c>
+      <c r="O63">
+        <v>0.13162290203448274</v>
+      </c>
+      <c r="P63">
+        <v>6.3479076351840278E-4</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -39818,11 +44697,23 @@
       <c r="N64">
         <v>20</v>
       </c>
+      <c r="O64">
+        <v>0.13803783696551725</v>
+      </c>
+      <c r="P64">
+        <v>7.197535524254737E-4</v>
+      </c>
     </row>
     <row r="65" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N65">
         <v>25</v>
       </c>
+      <c r="O65">
+        <v>0.14711324313793106</v>
+      </c>
+      <c r="P65">
+        <v>1.2198742313950426E-3</v>
+      </c>
     </row>
     <row r="67" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N67" t="s">
@@ -39842,6 +44733,12 @@
       <c r="N68">
         <v>5</v>
       </c>
+      <c r="O68">
+        <v>0.12172256282758621</v>
+      </c>
+      <c r="P68">
+        <v>4.5926926206785434E-4</v>
+      </c>
       <c r="Q68">
         <v>0.7</v>
       </c>
@@ -39850,41 +44747,89 @@
       <c r="N69">
         <v>6</v>
       </c>
+      <c r="O69">
+        <v>0.1217974546551724</v>
+      </c>
+      <c r="P69">
+        <v>4.7653200189622894E-4</v>
+      </c>
     </row>
     <row r="70" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N70">
         <v>7</v>
       </c>
+      <c r="O70">
+        <v>0.12189731503448274</v>
+      </c>
+      <c r="P70">
+        <v>4.8205520299598017E-4</v>
+      </c>
     </row>
     <row r="71" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N71">
         <v>8</v>
       </c>
+      <c r="O71">
+        <v>0.12222439324137929</v>
+      </c>
+      <c r="P71">
+        <v>5.6206342184204731E-4</v>
+      </c>
     </row>
     <row r="72" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N72">
         <v>9</v>
       </c>
+      <c r="O72">
+        <v>0.12261955275862067</v>
+      </c>
+      <c r="P72">
+        <v>5.2569828703215619E-4</v>
+      </c>
     </row>
     <row r="73" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N73">
         <v>10</v>
       </c>
+      <c r="O73">
+        <v>0.12317323444827585</v>
+      </c>
+      <c r="P73">
+        <v>4.8329756828163235E-4</v>
+      </c>
     </row>
     <row r="74" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N74">
         <v>15</v>
       </c>
+      <c r="O74">
+        <v>0.12677826127586206</v>
+      </c>
+      <c r="P74">
+        <v>6.0108892390528447E-4</v>
+      </c>
     </row>
     <row r="75" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N75">
         <v>20</v>
       </c>
+      <c r="O75">
+        <v>0.13252293427586209</v>
+      </c>
+      <c r="P75">
+        <v>7.2210628284317621E-4</v>
+      </c>
     </row>
     <row r="76" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N76">
         <v>25</v>
       </c>
+      <c r="O76">
+        <v>0.14008292075862069</v>
+      </c>
+      <c r="P76">
+        <v>9.1301881449864977E-4</v>
+      </c>
     </row>
     <row r="78" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N78" t="s">
@@ -39904,6 +44849,12 @@
       <c r="N79">
         <v>5</v>
       </c>
+      <c r="O79">
+        <v>0.11939793765517238</v>
+      </c>
+      <c r="P79">
+        <v>4.5953930914924865E-4</v>
+      </c>
       <c r="Q79">
         <v>0.8</v>
       </c>
@@ -39912,41 +44863,89 @@
       <c r="N80">
         <v>6</v>
       </c>
+      <c r="O80">
+        <v>0.11938909786206897</v>
+      </c>
+      <c r="P80">
+        <v>4.9021070999185679E-4</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N81">
         <v>7</v>
       </c>
+      <c r="O81">
+        <v>0.11960653937931034</v>
+      </c>
+      <c r="P81">
+        <v>4.7745400123666625E-4</v>
+      </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N82">
         <v>8</v>
       </c>
+      <c r="O82">
+        <v>0.1198885206551724</v>
+      </c>
+      <c r="P82">
+        <v>5.6491597807774199E-4</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N83">
         <v>9</v>
       </c>
+      <c r="O83">
+        <v>0.12025630293103449</v>
+      </c>
+      <c r="P83">
+        <v>4.7925784976452868E-4</v>
+      </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N84">
         <v>10</v>
       </c>
+      <c r="O84">
+        <v>0.12067470396551726</v>
+      </c>
+      <c r="P84">
+        <v>4.9979335764821628E-4</v>
+      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N85">
         <v>15</v>
       </c>
+      <c r="O85">
+        <v>0.12401380441379312</v>
+      </c>
+      <c r="P85">
+        <v>4.8298609294970845E-4</v>
+      </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N86">
         <v>20</v>
       </c>
+      <c r="O86">
+        <v>0.1292272871724138</v>
+      </c>
+      <c r="P86">
+        <v>7.9462432626122167E-4</v>
+      </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N87">
         <v>25</v>
       </c>
+      <c r="O87">
+        <v>0.13623450617241378</v>
+      </c>
+      <c r="P87">
+        <v>7.7014446519694472E-4</v>
+      </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N89" t="s">
@@ -39966,6 +44965,12 @@
       <c r="N90">
         <v>5</v>
       </c>
+      <c r="O90">
+        <v>0.1174424005862069</v>
+      </c>
+      <c r="P90">
+        <v>4.5108858168986662E-4</v>
+      </c>
       <c r="Q90">
         <v>0.9</v>
       </c>
@@ -39974,16 +44979,34 @@
       <c r="N91">
         <v>6</v>
       </c>
+      <c r="O91">
+        <v>0.11748921344827586</v>
+      </c>
+      <c r="P91">
+        <v>4.1334140925411813E-4</v>
+      </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N92">
         <v>7</v>
       </c>
+      <c r="O92">
+        <v>0.11759816300000002</v>
+      </c>
+      <c r="P92">
+        <v>4.3490379465521744E-4</v>
+      </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N93">
         <v>8</v>
       </c>
+      <c r="O93">
+        <v>0.11800281841379311</v>
+      </c>
+      <c r="P93">
+        <v>4.7600442891301272E-4</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -39992,6 +45015,7 @@
       <c r="B94" t="s">
         <v>1</v>
       </c>
+      <c r="C94" s="1"/>
       <c r="H94" t="s">
         <v>9</v>
       </c>
@@ -40009,6 +45033,12 @@
       </c>
       <c r="N94">
         <v>9</v>
+      </c>
+      <c r="O94">
+        <v>0.11823410779310346</v>
+      </c>
+      <c r="P94">
+        <v>5.4732337252602734E-4</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -40039,20 +45069,44 @@
       <c r="N95">
         <v>10</v>
       </c>
+      <c r="O95">
+        <v>0.11877496210344829</v>
+      </c>
+      <c r="P95">
+        <v>4.7195312983353932E-4</v>
+      </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N96">
         <v>15</v>
       </c>
+      <c r="O96">
+        <v>0.12195880510344825</v>
+      </c>
+      <c r="P96">
+        <v>4.6554609618360742E-4</v>
+      </c>
     </row>
     <row r="97" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N97">
         <v>20</v>
       </c>
+      <c r="O97">
+        <v>0.12684092079310344</v>
+      </c>
+      <c r="P97">
+        <v>5.9062947813469607E-4</v>
+      </c>
     </row>
     <row r="98" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N98">
         <v>25</v>
+      </c>
+      <c r="O98">
+        <v>0.13337699710344827</v>
+      </c>
+      <c r="P98">
+        <v>7.1755359370038942E-4</v>
       </c>
     </row>
     <row r="100" spans="14:17" x14ac:dyDescent="0.3">
@@ -40373,7 +45427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>

--- a/scripts/experiments/results_experiment.xlsx
+++ b/scripts/experiments/results_experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="k uniform - delay" sheetId="1" r:id="rId1"/>
@@ -1753,7 +1753,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3983,7 +3982,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4053,6 +4051,7 @@
         <c:crossAx val="756066224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="756066224"/>
@@ -4106,7 +4105,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4187,7 +4185,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4302,7 +4299,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t>k uniform</a:t>
+              <a:t>k exponential</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -4354,219 +4351,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>k_mean=0.3s</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'k exp - delay'!$P$24:$P$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>4.1354110548605322E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.2650251466474108E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.9819926079635876E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.7936595789296989E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.8170065515103465E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5.0751276711467732E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7.1688406813948582E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.1229897601807957E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2.0881704353464692E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'k exp - delay'!$P$24:$P$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>4.1354110548605322E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.2650251466474108E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.9819926079635876E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.7936595789296989E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.8170065515103465E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5.0751276711467732E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7.1688406813948582E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1.1229897601807957E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2.0881704353464692E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'k exp - delay'!$N$24:$N$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'k exp - delay'!$O$24:$O$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.20092720086206897</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20051033610344826</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20114849700000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20344236762068962</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20478983286206892</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20752083672413793</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23367196306896554</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28232044951724133</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.36949491379310351</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D09C-478F-8CC7-2649F2FFB449}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
           <c:tx>
             <c:v>k_mean=0.4s</c:v>
           </c:tx>
@@ -4777,7 +4563,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>k_mean=0.5s</c:v>
           </c:tx>
@@ -4988,7 +4774,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>k_mean=0.6s</c:v>
           </c:tx>
@@ -5199,7 +4985,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>k_mean=0.7s</c:v>
           </c:tx>
@@ -5416,7 +5202,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>k_mean=0.8s</c:v>
           </c:tx>
@@ -5633,7 +5419,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>k_mean=0.9s</c:v>
           </c:tx>
@@ -5850,7 +5636,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>k_mean=1s</c:v>
           </c:tx>
@@ -6195,11 +5981,14 @@
         <c:crossAx val="756066224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="756066224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.20500000000000002"/>
+          <c:min val="0.10500000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6440,7 +6229,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t>k uniform</a:t>
+              <a:t>k exponential</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -8746,6 +8535,7 @@
         <c:crossAx val="756066224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="756066224"/>
@@ -8986,7 +8776,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t>k uniform</a:t>
+              <a:t>k exponential</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -9038,430 +8828,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>k_mean=0.2s</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'k exp - pkt queue'!$M$13:$M$21</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>0.20599921671486365</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.19158226950556861</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.19794935380317147</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.20426544386607792</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.19630168893818081</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.20101448523510271</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.34262770782832991</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.75237520965372062</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2.8283176516435886</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'k exp - pkt queue'!$M$13:$M$21</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>0.20599921671486365</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.19158226950556861</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.19794935380317147</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.20426544386607792</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.19630168893818081</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.20101448523510271</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.34262770782832991</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.75237520965372062</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2.8283176516435886</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'k exp - pkt queue'!$K$13:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'k exp - pkt queue'!$L$13:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.5249280200689657</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4749791061379312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4697615696206898</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5027515290344833</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5834454130000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6620407971034483</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6746077827586205</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8913289040344825</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.845969224241381</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B89D-4D8C-BAE2-B3AEBDB7651B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>k_mean=0.3s</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'k exp - pkt queue'!$M$24:$M$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>1.3877541877669935E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.4271557617025052E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.3218649706121908E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.584674306595223E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.5829445580228797E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.6584817761512272E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.3398825892339863E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3.7200323965763095E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>6.9730643958560282E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'k exp - pkt queue'!$M$24:$M$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="9"/>
-                  <c:pt idx="0">
-                    <c:v>1.3877541877669935E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.4271557617025052E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.3218649706121908E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.584674306595223E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1.5829445580228797E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.6584817761512272E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.3398825892339863E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3.7200323965763095E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>6.9730643958560282E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'k exp - pkt queue'!$K$24:$K$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'k exp - pkt queue'!$L$24:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.33318010324137931</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32813001968965516</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32719718682758619</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33203010131034477</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33442465668965515</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.34117349355172422</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41718776227586218</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56622002524137927</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84170749517241383</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B89D-4D8C-BAE2-B3AEBDB7651B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>k_mean=0.4s</c:v>
           </c:tx>
@@ -9672,7 +9040,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>k_mean=0.5s</c:v>
           </c:tx>
@@ -9883,7 +9251,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>k_mean=0.6s</c:v>
           </c:tx>
@@ -10094,7 +9462,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>k_mean=0.7s</c:v>
           </c:tx>
@@ -10311,7 +9679,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="6"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>k_mean=0.8s</c:v>
           </c:tx>
@@ -10528,7 +9896,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="7"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>k_mean=0.9s</c:v>
           </c:tx>
@@ -10745,7 +10113,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="8"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>k_mean=1s</c:v>
           </c:tx>
@@ -11090,11 +10458,14 @@
         <c:crossAx val="756066224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="756066224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.22000000000000003"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13271,7 +12642,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15079,7 +14449,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15202,7 +14571,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15283,7 +14651,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15413,7 +14780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17221,7 +16587,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17345,7 +16710,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17426,7 +16790,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17556,7 +16919,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19153,7 +18515,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19223,12 +18584,13 @@
         <c:crossAx val="756066224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="756066224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.1"/>
+          <c:min val="0.10500000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -19277,7 +18639,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19358,7 +18719,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19475,7 +18835,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21705,7 +21064,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -21775,6 +21133,7 @@
         <c:crossAx val="756066224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="756066224"/>
@@ -21823,7 +21182,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -21904,7 +21262,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22034,7 +21391,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23842,7 +23198,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -23960,7 +23315,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -24041,7 +23395,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24171,7 +23524,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25768,7 +25120,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -25838,6 +25189,7 @@
         <c:crossAx val="756066224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="756066224"/>
@@ -25886,7 +25238,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -25967,7 +25318,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26082,7 +25432,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t>k uniform</a:t>
+              <a:t>k exponential</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -28388,6 +27738,7 @@
         <c:crossAx val="756066224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="756066224"/>
@@ -38869,8 +38220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ84" sqref="AJ84"/>
+    <sheetView topLeftCell="L70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44853,7 +44204,7 @@
   <dimension ref="A1:Z278"/>
   <sheetViews>
     <sheetView topLeftCell="I43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72"/>
+      <selection activeCell="AD51" sqref="AD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48405,8 +47756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC278"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB67" sqref="AB67"/>
+    <sheetView topLeftCell="O43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI52" sqref="AI52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54388,8 +53739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z278"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M101" sqref="M101:M109"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
